--- a/files/4-курс-бакалавриат-ОФО-42.xlsx
+++ b/files/4-курс-бакалавриат-ОФО-42.xlsx
@@ -12074,7 +12074,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I61"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
@@ -23327,7 +23327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:O60"/>
+  <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26588,6 +26588,7 @@
         </is>
       </c>
     </row>
+    <row r="57"/>
     <row r="58">
       <c r="E58" t="inlineStr">
         <is>

--- a/files/4-курс-бакалавриат-ОФО-42.xlsx
+++ b/files/4-курс-бакалавриат-ОФО-42.xlsx
@@ -12074,7 +12074,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I61"/>
+  <dimension ref="B1:I61"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
@@ -23327,7 +23327,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O60"/>
+  <dimension ref="B1:O60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26588,7 +26588,6 @@
         </is>
       </c>
     </row>
-    <row r="57"/>
     <row r="58">
       <c r="E58" t="inlineStr">
         <is>
